--- a/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.946000964865505</v>
+        <v>2.70531819317705</v>
       </c>
       <c r="C2">
-        <v>0.527754458894492</v>
+        <v>0.3207166779239685</v>
       </c>
       <c r="D2">
-        <v>0.00492849422292263</v>
+        <v>0.05951519538582062</v>
       </c>
       <c r="E2">
-        <v>0.02402373234948385</v>
+        <v>0.04383686274461951</v>
       </c>
       <c r="F2">
-        <v>2.099357595427833</v>
+        <v>0.8945322606816575</v>
       </c>
       <c r="G2">
-        <v>0.000824173250041652</v>
+        <v>0.0008076728465473811</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05313728671250395</v>
+        <v>0.0508013026754881</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3018565477695319</v>
+        <v>0.2763722860959064</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.037919270504318</v>
+        <v>0.8290201345247752</v>
       </c>
       <c r="O2">
-        <v>1.524516502598019</v>
+        <v>2.341267636395457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.464646652591057</v>
+        <v>2.360596779939954</v>
       </c>
       <c r="C3">
-        <v>0.4557565363712399</v>
+        <v>0.2875360909944646</v>
       </c>
       <c r="D3">
-        <v>0.004478642311608994</v>
+        <v>0.055530046486993</v>
       </c>
       <c r="E3">
-        <v>0.02412358125777825</v>
+        <v>0.0436268701122664</v>
       </c>
       <c r="F3">
-        <v>1.975435756761357</v>
+        <v>0.8551519866700872</v>
       </c>
       <c r="G3">
-        <v>0.0008322045765041076</v>
+        <v>0.0008121917849405823</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05436632560303956</v>
+        <v>0.05245553632103395</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2709656243401923</v>
+        <v>0.2468768813997428</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100442114288672</v>
+        <v>0.8580007298992456</v>
       </c>
       <c r="O3">
-        <v>1.432994822316005</v>
+        <v>2.244084167534226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.173864792207723</v>
+        <v>2.149825958985616</v>
       </c>
       <c r="C4">
-        <v>0.4120227282470523</v>
+        <v>0.2671304206408394</v>
       </c>
       <c r="D4">
-        <v>0.004213655856335041</v>
+        <v>0.05312337404510714</v>
       </c>
       <c r="E4">
-        <v>0.02420176211813585</v>
+        <v>0.04354879475403095</v>
       </c>
       <c r="F4">
-        <v>1.903698054344872</v>
+        <v>0.8326470358419016</v>
       </c>
       <c r="G4">
-        <v>0.0008372773306380267</v>
+        <v>0.0008150609176399381</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05518276033539138</v>
+        <v>0.05354255557549159</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2523777204617801</v>
+        <v>0.228943428822447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.140497870192668</v>
+        <v>0.8769131698875015</v>
       </c>
       <c r="O4">
-        <v>1.380112465247223</v>
+        <v>2.189217994041172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.056432596547836</v>
+        <v>2.06412473101966</v>
       </c>
       <c r="C5">
-        <v>0.3943001185731703</v>
+        <v>0.258804571803779</v>
       </c>
       <c r="D5">
-        <v>0.004107981288244744</v>
+        <v>0.05215230087927125</v>
       </c>
       <c r="E5">
-        <v>0.0242377731982284</v>
+        <v>0.04352943235933537</v>
       </c>
       <c r="F5">
-        <v>1.87547573416542</v>
+        <v>0.8238755072285571</v>
       </c>
       <c r="G5">
-        <v>0.0008393814411478781</v>
+        <v>0.0008162543025064466</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05553059059870513</v>
+        <v>0.0540030672111822</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2448894463495463</v>
+        <v>0.2216762124752023</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.157225569872733</v>
+        <v>0.8848936789312276</v>
       </c>
       <c r="O5">
-        <v>1.359331105634865</v>
+        <v>2.168003853314048</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.036993539785726</v>
+        <v>2.049904600831042</v>
       </c>
       <c r="C6">
-        <v>0.3913627418561703</v>
+        <v>0.2574213842108435</v>
       </c>
       <c r="D6">
-        <v>0.004090559598586729</v>
+        <v>0.05199162603037166</v>
       </c>
       <c r="E6">
-        <v>0.02424400105047919</v>
+        <v>0.04352695992700362</v>
       </c>
       <c r="F6">
-        <v>1.870848226067238</v>
+        <v>0.8224425122897969</v>
       </c>
       <c r="G6">
-        <v>0.0008397330946170609</v>
+        <v>0.0008164539364459456</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05558924962632261</v>
+        <v>0.0540805832796174</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2436509976494676</v>
+        <v>0.2204718586523882</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.160027232384675</v>
+        <v>0.8862351413028335</v>
       </c>
       <c r="O6">
-        <v>1.355925013773998</v>
+        <v>2.164548564885024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.172276925597657</v>
+        <v>2.148669438176398</v>
       </c>
       <c r="C7">
-        <v>0.4117833379058311</v>
+        <v>0.2670181800766471</v>
       </c>
       <c r="D7">
-        <v>0.004212221980430364</v>
+        <v>0.05311023925353453</v>
       </c>
       <c r="E7">
-        <v>0.02420223108049946</v>
+        <v>0.04354848363206543</v>
       </c>
       <c r="F7">
-        <v>1.903313447919416</v>
+        <v>0.8325271505613969</v>
       </c>
       <c r="G7">
-        <v>0.0008373055561182009</v>
+        <v>0.0008150769135223589</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05518739057375655</v>
+        <v>0.05354869566941822</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.252276392242365</v>
+        <v>0.2288452600423199</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.14072184555792</v>
+        <v>0.8770197000943014</v>
       </c>
       <c r="O7">
-        <v>1.379829169783235</v>
+        <v>2.188927341734598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.778954220154503</v>
+        <v>2.586252378144763</v>
       </c>
       <c r="C8">
-        <v>0.5028189659726934</v>
+        <v>0.3092814317004695</v>
       </c>
       <c r="D8">
-        <v>0.004770729738816204</v>
+        <v>0.0581324875424869</v>
       </c>
       <c r="E8">
-        <v>0.02405460075506305</v>
+        <v>0.04375369405786067</v>
       </c>
       <c r="F8">
-        <v>2.055674516665675</v>
+        <v>0.8805929415145428</v>
       </c>
       <c r="G8">
-        <v>0.0008269139257597048</v>
+        <v>0.0008092116315816002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05354797432781488</v>
+        <v>0.05135664145108443</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2911210482310622</v>
+        <v>0.2661632909091338</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.059122252424448</v>
+        <v>0.8387758237474188</v>
       </c>
       <c r="O8">
-        <v>1.492232054883473</v>
+        <v>2.30672196913784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.013293136518712</v>
+        <v>3.453092491944801</v>
       </c>
       <c r="C9">
-        <v>0.6860808260640567</v>
+        <v>0.3920096968925293</v>
       </c>
       <c r="D9">
-        <v>0.005981289173252247</v>
+        <v>0.06832237760704629</v>
       </c>
       <c r="E9">
-        <v>0.02390356357830381</v>
+        <v>0.04457568931873723</v>
       </c>
       <c r="F9">
-        <v>2.393075570930364</v>
+        <v>0.9891786379088643</v>
       </c>
       <c r="G9">
-        <v>0.0008075923225862225</v>
+        <v>0.0007984389285930134</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05084372400859927</v>
+        <v>0.04764225738735028</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.370748887984476</v>
+        <v>0.3409263136435925</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9130368513062841</v>
+        <v>0.7730164792681649</v>
       </c>
       <c r="O9">
-        <v>1.742124475012801</v>
+        <v>2.578908979658706</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.957926073608519</v>
+        <v>4.097855074457641</v>
       </c>
       <c r="C10">
-        <v>0.8251535479002712</v>
+        <v>0.4528690027221671</v>
       </c>
       <c r="D10">
-        <v>0.006983167221178199</v>
+        <v>0.07605048571445394</v>
       </c>
       <c r="E10">
-        <v>0.02388420913269584</v>
+        <v>0.04545905329430333</v>
       </c>
       <c r="F10">
-        <v>2.670853875996812</v>
+        <v>1.079237929706693</v>
       </c>
       <c r="G10">
-        <v>0.000793938791701124</v>
+        <v>0.0007909382028441432</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04919927159584603</v>
+        <v>0.0452963279917924</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4320470608468838</v>
+        <v>0.397090879526047</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8152909574701432</v>
+        <v>0.7308698289362638</v>
       </c>
       <c r="O10">
-        <v>1.948624513485925</v>
+        <v>2.808553376538356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.398546732410466</v>
+        <v>4.393509814661513</v>
       </c>
       <c r="C11">
-        <v>0.8897774374334517</v>
+        <v>0.4806144398328911</v>
       </c>
       <c r="D11">
-        <v>0.007474653013064714</v>
+        <v>0.07962672982309726</v>
       </c>
       <c r="E11">
-        <v>0.02389716319740476</v>
+        <v>0.04592720846047804</v>
       </c>
       <c r="F11">
-        <v>2.8053266898944</v>
+        <v>1.122810793930526</v>
       </c>
       <c r="G11">
-        <v>0.0007878195199149537</v>
+        <v>0.0007876086178879362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04853335669461423</v>
+        <v>0.04431864431089849</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4607155395038944</v>
+        <v>0.4229754585955448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7731836241302865</v>
+        <v>0.7131632867908593</v>
       </c>
       <c r="O11">
-        <v>2.04879749908973</v>
+        <v>2.920558641749494</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.567220039083224</v>
+        <v>4.505859324467053</v>
       </c>
       <c r="C12">
-        <v>0.9144817815616193</v>
+        <v>0.4911332809337239</v>
       </c>
       <c r="D12">
-        <v>0.007667025199742383</v>
+        <v>0.08099039725628643</v>
       </c>
       <c r="E12">
-        <v>0.02390537786407076</v>
+        <v>0.0461145216107024</v>
       </c>
       <c r="F12">
-        <v>2.857567888851037</v>
+        <v>1.139718465780518</v>
       </c>
       <c r="G12">
-        <v>0.0007855131038662956</v>
+        <v>0.0007863590265902324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04829375451853579</v>
+        <v>0.04396186576725292</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4717008050828895</v>
+        <v>0.4328312540475565</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.757604734780017</v>
+        <v>0.7066807490146729</v>
       </c>
       <c r="O12">
-        <v>2.087746821786027</v>
+        <v>2.96415450121151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.530807940938473</v>
+        <v>4.481644534560871</v>
       </c>
       <c r="C13">
-        <v>0.9091502662134019</v>
+        <v>0.4888672550535489</v>
       </c>
       <c r="D13">
-        <v>0.00762529640362386</v>
+        <v>0.08069627643170918</v>
       </c>
       <c r="E13">
-        <v>0.02390345837636954</v>
+        <v>0.0460737258597721</v>
       </c>
       <c r="F13">
-        <v>2.84625549791437</v>
+        <v>1.136058415889991</v>
       </c>
       <c r="G13">
-        <v>0.0007860093915370578</v>
+        <v>0.0007866276584117551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04834478537324394</v>
+        <v>0.04403809658873747</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4693289048736489</v>
+        <v>0.4307061409905089</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7609431688359791</v>
+        <v>0.7080667862453609</v>
       </c>
       <c r="O13">
-        <v>2.079311141905521</v>
+        <v>2.95471114969294</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.412385560773942</v>
+        <v>4.402744707583963</v>
       </c>
       <c r="C14">
-        <v>0.8918049851162095</v>
+        <v>0.4814795640902219</v>
       </c>
       <c r="D14">
-        <v>0.007490347147730336</v>
+        <v>0.07973872657854741</v>
       </c>
       <c r="E14">
-        <v>0.02389777158128492</v>
+        <v>0.0459424147770946</v>
       </c>
       <c r="F14">
-        <v>2.809597221041116</v>
+        <v>1.124193431591607</v>
       </c>
       <c r="G14">
-        <v>0.0007876295674324352</v>
+        <v>0.0007875055915182252</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04851338803237226</v>
+        <v>0.04428901891913739</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4616166145188032</v>
+        <v>0.4237851870531983</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7718944315200282</v>
+        <v>0.7126254342837441</v>
       </c>
       <c r="O14">
-        <v>2.051980784871475</v>
+        <v>2.924121025367327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.340093434703419</v>
+        <v>4.354468934910756</v>
       </c>
       <c r="C15">
-        <v>0.8812119876926658</v>
+        <v>0.4769560968279905</v>
       </c>
       <c r="D15">
-        <v>0.00740853790205076</v>
+        <v>0.07915344809833158</v>
       </c>
       <c r="E15">
-        <v>0.02389472498076017</v>
+        <v>0.04586330489210155</v>
       </c>
       <c r="F15">
-        <v>2.787319636693837</v>
+        <v>1.116979888054033</v>
       </c>
       <c r="G15">
-        <v>0.0007886233056224461</v>
+        <v>0.000788044796923474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0486183222089096</v>
+        <v>0.04444448546270152</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4569099532686778</v>
+        <v>0.4195530945084158</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7786509569432454</v>
+        <v>0.7154470817376364</v>
       </c>
       <c r="O15">
-        <v>2.035376257779646</v>
+        <v>2.905540639432076</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.929370724389628</v>
+        <v>4.07858510184235</v>
       </c>
       <c r="C16">
-        <v>0.8209606510580727</v>
+        <v>0.4510572843195177</v>
       </c>
       <c r="D16">
-        <v>0.006951858236787789</v>
+        <v>0.07581804914222801</v>
       </c>
       <c r="E16">
-        <v>0.02388381527647443</v>
+        <v>0.04542983434183689</v>
       </c>
       <c r="F16">
-        <v>2.662241622359858</v>
+        <v>1.076445518387899</v>
       </c>
       <c r="G16">
-        <v>0.0007943403503056598</v>
+        <v>0.0007911574080307405</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04924450616110043</v>
+        <v>0.04536207141921089</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4301906389198962</v>
+        <v>0.395406479475426</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8180924647510395</v>
+        <v>0.7320574785473326</v>
       </c>
       <c r="O16">
-        <v>1.942213317531682</v>
+        <v>2.801393464187612</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.680368037117205</v>
+        <v>3.909977804894766</v>
       </c>
       <c r="C17">
-        <v>0.7843715595745948</v>
+        <v>0.4351870792076511</v>
       </c>
       <c r="D17">
-        <v>0.006681594762157683</v>
+        <v>0.07378791161900011</v>
       </c>
       <c r="E17">
-        <v>0.02388281647528778</v>
+        <v>0.04518124111373467</v>
       </c>
       <c r="F17">
-        <v>2.587690711915343</v>
+        <v>1.052268808062422</v>
       </c>
       <c r="G17">
-        <v>0.0007978694724265322</v>
+        <v>0.0007930876061555789</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04965019972397577</v>
+        <v>0.04594830210599099</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4140110133187562</v>
+        <v>0.3806830341985119</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8429107594772809</v>
+        <v>0.7426310156643154</v>
       </c>
       <c r="O17">
-        <v>1.886738317432119</v>
+        <v>2.739500729987299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.538157692728134</v>
+        <v>3.813216984488804</v>
       </c>
       <c r="C18">
-        <v>0.7634519110118561</v>
+        <v>0.4260643932863388</v>
       </c>
       <c r="D18">
-        <v>0.006529432725340456</v>
+        <v>0.07262589795650598</v>
       </c>
       <c r="E18">
-        <v>0.02388427789907599</v>
+        <v>0.04504446638398463</v>
       </c>
       <c r="F18">
-        <v>2.545564175401495</v>
+        <v>1.038606025428862</v>
       </c>
       <c r="G18">
-        <v>0.0007999081274482488</v>
+        <v>0.000794205612903031</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04989122694156478</v>
+        <v>0.04629387282912134</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4047775864328571</v>
+        <v>0.3722456670088263</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8574056972191713</v>
+        <v>0.7488498892584303</v>
       </c>
       <c r="O18">
-        <v>1.855409491939312</v>
+        <v>2.704604982128188</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.490173885687057</v>
+        <v>3.780491246244708</v>
       </c>
       <c r="C19">
-        <v>0.756389359221032</v>
+        <v>0.4229764382523911</v>
       </c>
       <c r="D19">
-        <v>0.006478446317233821</v>
+        <v>0.07223341322237076</v>
       </c>
       <c r="E19">
-        <v>0.02388511726270615</v>
+        <v>0.04499920867653273</v>
       </c>
       <c r="F19">
-        <v>2.531425844303627</v>
+        <v>1.034020813777019</v>
       </c>
       <c r="G19">
-        <v>0.0008005999599333466</v>
+        <v>0.0007945855098861211</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04997413266044148</v>
+        <v>0.04641230045856126</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4016633172678752</v>
+        <v>0.3693941065763653</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.862350462906555</v>
+        <v>0.7509787232595926</v>
       </c>
       <c r="O19">
-        <v>1.844898114993143</v>
+        <v>2.692907815518595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.706768597501991</v>
+        <v>3.92790343959382</v>
       </c>
       <c r="C20">
-        <v>0.7882532942366822</v>
+        <v>0.4368759020534014</v>
       </c>
       <c r="D20">
-        <v>0.006710017073016772</v>
+        <v>0.07400343176975355</v>
       </c>
       <c r="E20">
-        <v>0.02388271085885485</v>
+        <v>0.04520705812634773</v>
       </c>
       <c r="F20">
-        <v>2.595547782562377</v>
+        <v>1.054817076707877</v>
       </c>
       <c r="G20">
-        <v>0.0007974928972501634</v>
+        <v>0.0007928813295460414</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04960621261813536</v>
+        <v>0.0458850248171867</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4157257284861657</v>
+        <v>0.3822471043926896</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8402458425009236</v>
+        <v>0.7414911570648428</v>
       </c>
       <c r="O20">
-        <v>1.892582990105709</v>
+        <v>2.746015841615332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.447117532268635</v>
+        <v>4.42590842517825</v>
       </c>
       <c r="C21">
-        <v>0.8968930792474623</v>
+        <v>0.4836491454533984</v>
       </c>
       <c r="D21">
-        <v>0.007529805403621026</v>
+        <v>0.08001972069062191</v>
       </c>
       <c r="E21">
-        <v>0.02389935056098391</v>
+        <v>0.04598070759593575</v>
       </c>
       <c r="F21">
-        <v>2.820327527866965</v>
+        <v>1.12766712773454</v>
       </c>
       <c r="G21">
-        <v>0.000787153409267678</v>
+        <v>0.0007872474210582221</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04846351789718106</v>
+        <v>0.04421494712031304</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4638782554387006</v>
+        <v>0.4258165294795191</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7686676067592444</v>
+        <v>0.7112803115167878</v>
       </c>
       <c r="O21">
-        <v>2.059979774674517</v>
+        <v>2.93307319324353</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.941725849191357</v>
+        <v>4.753693417920999</v>
       </c>
       <c r="C22">
-        <v>0.9692725491399301</v>
+        <v>0.5142914483070342</v>
       </c>
       <c r="D22">
-        <v>0.008102707889769523</v>
+        <v>0.08400698947768603</v>
       </c>
       <c r="E22">
-        <v>0.02392961627000822</v>
+        <v>0.0465450681006061</v>
       </c>
       <c r="F22">
-        <v>2.97500890233124</v>
+        <v>1.177671685568654</v>
       </c>
       <c r="G22">
-        <v>0.0007804577048240446</v>
+        <v>0.000783630592950444</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04779035596077286</v>
+        <v>0.04320214500841324</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.496110542020574</v>
+        <v>0.4546086163590672</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7240370170840009</v>
+        <v>0.6928389944791391</v>
       </c>
       <c r="O22">
-        <v>2.1753716937191</v>
+        <v>3.062265897198444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.676669094670217</v>
+        <v>4.578518140778328</v>
       </c>
       <c r="C23">
-        <v>0.9305026733969157</v>
+        <v>0.4979290978764936</v>
       </c>
       <c r="D23">
-        <v>0.00779312505637364</v>
+        <v>0.08187360786667597</v>
       </c>
       <c r="E23">
-        <v>0.02391162252698287</v>
+        <v>0.04623831037893567</v>
       </c>
       <c r="F23">
-        <v>2.891685519288529</v>
+        <v>1.150752779001039</v>
       </c>
       <c r="G23">
-        <v>0.0007840265399384219</v>
+        <v>0.0007855552067490845</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04814262375443512</v>
+        <v>0.04373529399192222</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4788318856582379</v>
+        <v>0.4392107380345465</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7476505827661839</v>
+        <v>0.7025581357409223</v>
       </c>
       <c r="O23">
-        <v>2.113193492335185</v>
+        <v>2.992644007050188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.694829980538259</v>
+        <v>3.919798722927055</v>
       </c>
       <c r="C24">
-        <v>0.7864980037238354</v>
+        <v>0.4361123814426549</v>
       </c>
       <c r="D24">
-        <v>0.006697157411275079</v>
+        <v>0.07390597915302521</v>
       </c>
       <c r="E24">
-        <v>0.0238827522807501</v>
+        <v>0.04519536715242367</v>
       </c>
       <c r="F24">
-        <v>2.591993326707993</v>
+        <v>1.053664269561381</v>
       </c>
       <c r="G24">
-        <v>0.0007976631165640032</v>
+        <v>0.000792974561276208</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04962607498484495</v>
+        <v>0.04591360592610272</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4149502937534777</v>
+        <v>0.3815399035319587</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8414499477676287</v>
+        <v>0.7420060519252019</v>
       </c>
       <c r="O24">
-        <v>1.889938864163881</v>
+        <v>2.743068226450816</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.673569958838186</v>
+        <v>3.217399763621358</v>
       </c>
       <c r="C25">
-        <v>0.6358471886933899</v>
+        <v>0.3696288156185403</v>
       </c>
       <c r="D25">
-        <v>0.005637452840757451</v>
+        <v>0.06552588171251728</v>
       </c>
       <c r="E25">
-        <v>0.02392890712897167</v>
+        <v>0.04430604479626155</v>
       </c>
       <c r="F25">
-        <v>2.297050202675322</v>
+        <v>0.9581160077799211</v>
       </c>
       <c r="G25">
-        <v>0.0008127161644881663</v>
+        <v>0.000801278217366086</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05151761242005648</v>
+        <v>0.04858187938151026</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3487707929874801</v>
+        <v>0.3205046484245599</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9509601376885009</v>
+        <v>0.7897641831800755</v>
       </c>
       <c r="O25">
-        <v>1.67088869625718</v>
+        <v>2.500413635530521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.70531819317705</v>
+        <v>2.289677507214719</v>
       </c>
       <c r="C2">
-        <v>0.3207166779239685</v>
+        <v>0.362906933582849</v>
       </c>
       <c r="D2">
-        <v>0.05951519538582062</v>
+        <v>0.09313819647888977</v>
       </c>
       <c r="E2">
-        <v>0.04383686274461951</v>
+        <v>0.05183538909590624</v>
       </c>
       <c r="F2">
-        <v>0.8945322606816575</v>
+        <v>0.5986092591389394</v>
       </c>
       <c r="G2">
-        <v>0.0008076728465473811</v>
+        <v>0.373977430753321</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004452791009210699</v>
       </c>
       <c r="J2">
-        <v>0.0508013026754881</v>
+        <v>0.3108345882034058</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2928777774073588</v>
       </c>
       <c r="L2">
-        <v>0.2763722860959064</v>
+        <v>0.05150764732713231</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8290201345247752</v>
+        <v>0.2856802448434479</v>
       </c>
       <c r="O2">
-        <v>2.341267636395457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.914835405001341</v>
+      </c>
+      <c r="Q2">
+        <v>1.392115774035744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.360596779939954</v>
+        <v>1.996310360027678</v>
       </c>
       <c r="C3">
-        <v>0.2875360909944646</v>
+        <v>0.3292161152708388</v>
       </c>
       <c r="D3">
-        <v>0.055530046486993</v>
+        <v>0.08713532691282921</v>
       </c>
       <c r="E3">
-        <v>0.0436268701122664</v>
+        <v>0.05141700428713847</v>
       </c>
       <c r="F3">
-        <v>0.8551519866700872</v>
+        <v>0.5747653262688317</v>
       </c>
       <c r="G3">
-        <v>0.0008121917849405823</v>
+        <v>0.355118023105085</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000624871655918291</v>
       </c>
       <c r="J3">
-        <v>0.05245553632103395</v>
+        <v>0.3066836794487173</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2957388795120437</v>
       </c>
       <c r="L3">
-        <v>0.2468768813997428</v>
+        <v>0.05276100467561573</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8580007298992456</v>
+        <v>0.2547225484321274</v>
       </c>
       <c r="O3">
-        <v>2.244084167534226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9108849143680899</v>
+      </c>
+      <c r="Q3">
+        <v>1.343130391815876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.149825958985616</v>
+        <v>1.815570219839714</v>
       </c>
       <c r="C4">
-        <v>0.2671304206408394</v>
+        <v>0.3086064406614639</v>
       </c>
       <c r="D4">
-        <v>0.05312337404510714</v>
+        <v>0.08352644640341111</v>
       </c>
       <c r="E4">
-        <v>0.04354879475403095</v>
+        <v>0.05120387592317321</v>
       </c>
       <c r="F4">
-        <v>0.8326470358419016</v>
+        <v>0.5608251256782353</v>
       </c>
       <c r="G4">
-        <v>0.0008150609176399381</v>
+        <v>0.344032516339837</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0009420958936479096</v>
       </c>
       <c r="J4">
-        <v>0.05354255557549159</v>
+        <v>0.3044739300248906</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2978602482281723</v>
       </c>
       <c r="L4">
-        <v>0.228943428822447</v>
+        <v>0.05356815587688857</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8769131698875015</v>
+        <v>0.235933990283641</v>
       </c>
       <c r="O4">
-        <v>2.189217994041172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9092901979090939</v>
+      </c>
+      <c r="Q4">
+        <v>1.314801522056115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.06412473101966</v>
+        <v>1.740825348841469</v>
       </c>
       <c r="C5">
-        <v>0.258804571803779</v>
+        <v>0.3006319654515295</v>
       </c>
       <c r="D5">
-        <v>0.05215230087927125</v>
+        <v>0.08208785231401095</v>
       </c>
       <c r="E5">
-        <v>0.04352943235933537</v>
+        <v>0.05111125461345445</v>
       </c>
       <c r="F5">
-        <v>0.8238755072285571</v>
+        <v>0.5549558956226477</v>
       </c>
       <c r="G5">
-        <v>0.0008162543025064466</v>
+        <v>0.3393189335227689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001190685167554939</v>
       </c>
       <c r="J5">
-        <v>0.0540030672111822</v>
+        <v>0.3034955916164392</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2985747472403553</v>
       </c>
       <c r="L5">
-        <v>0.2216762124752023</v>
+        <v>0.05388944243026472</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8848936789312276</v>
+        <v>0.2284933158198754</v>
       </c>
       <c r="O5">
-        <v>2.168003853314048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9092127797909697</v>
+      </c>
+      <c r="Q5">
+        <v>1.302675905974894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.049904600831042</v>
+        <v>1.727261308570775</v>
       </c>
       <c r="C6">
-        <v>0.2574213842108435</v>
+        <v>0.2998089241094561</v>
       </c>
       <c r="D6">
-        <v>0.05199162603037166</v>
+        <v>0.081866408040149</v>
       </c>
       <c r="E6">
-        <v>0.04352695992700362</v>
+        <v>0.05107625875245425</v>
       </c>
       <c r="F6">
-        <v>0.8224425122897969</v>
+        <v>0.553554304482013</v>
       </c>
       <c r="G6">
-        <v>0.0008164539364459456</v>
+        <v>0.3381590121629188</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001327491932973324</v>
       </c>
       <c r="J6">
-        <v>0.0540805832796174</v>
+        <v>0.3031419462414391</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2984069653158876</v>
       </c>
       <c r="L6">
-        <v>0.2204718586523882</v>
+        <v>0.05392264925332402</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8862351413028335</v>
+        <v>0.2274614111602915</v>
       </c>
       <c r="O6">
-        <v>2.164548564885024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9096657974734583</v>
+      </c>
+      <c r="Q6">
+        <v>1.299461968647364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.148669438176398</v>
+        <v>1.811429907435524</v>
       </c>
       <c r="C7">
-        <v>0.2670181800766471</v>
+        <v>0.3098694323012552</v>
       </c>
       <c r="D7">
-        <v>0.05311023925353453</v>
+        <v>0.08355152189686521</v>
       </c>
       <c r="E7">
-        <v>0.04354848363206543</v>
+        <v>0.05114728753089537</v>
       </c>
       <c r="F7">
-        <v>0.8325271505613969</v>
+        <v>0.5595511429088589</v>
       </c>
       <c r="G7">
-        <v>0.0008150769135223589</v>
+        <v>0.3429182654003284</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001182336900511949</v>
       </c>
       <c r="J7">
-        <v>0.05354869566941822</v>
+        <v>0.3039249728631717</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2970734067251861</v>
       </c>
       <c r="L7">
-        <v>0.2288452600423199</v>
+        <v>0.05351618666991076</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8770197000943014</v>
+        <v>0.2363816416494871</v>
       </c>
       <c r="O7">
-        <v>2.188927341734598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9105409167980625</v>
+      </c>
+      <c r="Q7">
+        <v>1.311288029547455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.586252378144763</v>
+        <v>2.18445760298755</v>
       </c>
       <c r="C8">
-        <v>0.3092814317004695</v>
+        <v>0.353108596716595</v>
       </c>
       <c r="D8">
-        <v>0.0581324875424869</v>
+        <v>0.0911109607127969</v>
       </c>
       <c r="E8">
-        <v>0.04375369405786067</v>
+        <v>0.05160893491253127</v>
       </c>
       <c r="F8">
-        <v>0.8805929415145428</v>
+        <v>0.5886558344983399</v>
       </c>
       <c r="G8">
-        <v>0.0008092116315816002</v>
+        <v>0.3659755827741193</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007449471991414214</v>
       </c>
       <c r="J8">
-        <v>0.05135664145108443</v>
+        <v>0.308623745387365</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2927376014159826</v>
       </c>
       <c r="L8">
-        <v>0.2661632909091338</v>
+        <v>0.051858845564837</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8387758237474188</v>
+        <v>0.2756864677825064</v>
       </c>
       <c r="O8">
-        <v>2.30672196913784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9150127964893855</v>
+      </c>
+      <c r="Q8">
+        <v>1.370416231256542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.453092491944801</v>
+        <v>2.91704852858345</v>
       </c>
       <c r="C9">
-        <v>0.3920096968925293</v>
+        <v>0.4361596879510614</v>
       </c>
       <c r="D9">
-        <v>0.06832237760704629</v>
+        <v>0.1064951978992497</v>
       </c>
       <c r="E9">
-        <v>0.04457568931873723</v>
+        <v>0.05297006807405502</v>
       </c>
       <c r="F9">
-        <v>0.9891786379088643</v>
+        <v>0.6537729290299907</v>
       </c>
       <c r="G9">
-        <v>0.0007984389285930134</v>
+        <v>0.4172976729357032</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001291318924271145</v>
       </c>
       <c r="J9">
-        <v>0.04764225738735028</v>
+        <v>0.3216144081232954</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2886826989503639</v>
       </c>
       <c r="L9">
-        <v>0.3409263136435925</v>
+        <v>0.04901060029498794</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7730164792681649</v>
+        <v>0.3536714792430757</v>
       </c>
       <c r="O9">
-        <v>2.578908979658706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9283216544344981</v>
+      </c>
+      <c r="Q9">
+        <v>1.507149202912274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.097855074457641</v>
+        <v>3.451305609519181</v>
       </c>
       <c r="C10">
-        <v>0.4528690027221671</v>
+        <v>0.498559900389921</v>
       </c>
       <c r="D10">
-        <v>0.07605048571445394</v>
+        <v>0.1182541066404639</v>
       </c>
       <c r="E10">
-        <v>0.04545905329430333</v>
+        <v>0.05417529171335822</v>
       </c>
       <c r="F10">
-        <v>1.079237929706693</v>
+        <v>0.7051281481468834</v>
       </c>
       <c r="G10">
-        <v>0.0007909382028441432</v>
+        <v>0.4574945834885682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003049344683289767</v>
       </c>
       <c r="J10">
-        <v>0.0452963279917924</v>
+        <v>0.3328052333730085</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2873614665206858</v>
       </c>
       <c r="L10">
-        <v>0.397090879526047</v>
+        <v>0.04708445622646984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7308698289362638</v>
+        <v>0.4126227875968453</v>
       </c>
       <c r="O10">
-        <v>2.808553376538356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9434189100149695</v>
+      </c>
+      <c r="Q10">
+        <v>1.616291702948644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.393509814661513</v>
+        <v>3.688606923007967</v>
       </c>
       <c r="C11">
-        <v>0.4806144398328911</v>
+        <v>0.5295008009956632</v>
       </c>
       <c r="D11">
-        <v>0.07962672982309726</v>
+        <v>0.123780556323041</v>
       </c>
       <c r="E11">
-        <v>0.04592720846047804</v>
+        <v>0.05468773216446543</v>
       </c>
       <c r="F11">
-        <v>1.122810793930526</v>
+        <v>0.7275392320653964</v>
       </c>
       <c r="G11">
-        <v>0.0007876086178879362</v>
+        <v>0.4748088818433018</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004516738350214489</v>
       </c>
       <c r="J11">
-        <v>0.04431864431089849</v>
+        <v>0.3374850680523735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2859736992075526</v>
       </c>
       <c r="L11">
-        <v>0.4229754585955448</v>
+        <v>0.0461665192200833</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7131632867908593</v>
+        <v>0.4407038084957691</v>
       </c>
       <c r="O11">
-        <v>2.920558641749494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9537222940244021</v>
+      </c>
+      <c r="Q11">
+        <v>1.663011944866156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.505859324467053</v>
+        <v>3.781243998801472</v>
       </c>
       <c r="C12">
-        <v>0.4911332809337239</v>
+        <v>0.5400053313285298</v>
       </c>
       <c r="D12">
-        <v>0.08099039725628643</v>
+        <v>0.1258506227624281</v>
       </c>
       <c r="E12">
-        <v>0.0461145216107024</v>
+        <v>0.05493754587250166</v>
       </c>
       <c r="F12">
-        <v>1.139718465780518</v>
+        <v>0.7372244970639628</v>
       </c>
       <c r="G12">
-        <v>0.0007863590265902324</v>
+        <v>0.4824022457663801</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004931518464172946</v>
       </c>
       <c r="J12">
-        <v>0.04396186576725292</v>
+        <v>0.3397906789155201</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2862036856947121</v>
       </c>
       <c r="L12">
-        <v>0.4328312540475565</v>
+        <v>0.04587111339834848</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7066807490146729</v>
+        <v>0.4509099288459737</v>
       </c>
       <c r="O12">
-        <v>2.96415450121151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9565719184278834</v>
+      </c>
+      <c r="Q12">
+        <v>1.684017789516048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.481644534560871</v>
+        <v>3.761865340926761</v>
       </c>
       <c r="C13">
-        <v>0.4888672550535489</v>
+        <v>0.5374896588976696</v>
       </c>
       <c r="D13">
-        <v>0.08069627643170918</v>
+        <v>0.1253963142245595</v>
       </c>
       <c r="E13">
-        <v>0.0460737258597721</v>
+        <v>0.05489297856764352</v>
       </c>
       <c r="F13">
-        <v>1.136058415889991</v>
+        <v>0.7353413694113868</v>
       </c>
       <c r="G13">
-        <v>0.0007866276584117551</v>
+        <v>0.4809463905544646</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004799414058457963</v>
       </c>
       <c r="J13">
-        <v>0.04403809658873747</v>
+        <v>0.3393841064534229</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2862873856189907</v>
       </c>
       <c r="L13">
-        <v>0.4307061409905089</v>
+        <v>0.04594358132352383</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7080667862453609</v>
+        <v>0.4486120076924749</v>
       </c>
       <c r="O13">
-        <v>2.95471114969294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9557023555691586</v>
+      </c>
+      <c r="Q13">
+        <v>1.68006285979385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.402744707583963</v>
+        <v>3.69647123604949</v>
       </c>
       <c r="C14">
-        <v>0.4814795640902219</v>
+        <v>0.5302574211620765</v>
       </c>
       <c r="D14">
-        <v>0.07973872657854741</v>
+        <v>0.1239472398907822</v>
       </c>
       <c r="E14">
-        <v>0.0459424147770946</v>
+        <v>0.05471219870747568</v>
       </c>
       <c r="F14">
-        <v>1.124193431591607</v>
+        <v>0.728421995034374</v>
       </c>
       <c r="G14">
-        <v>0.0007875055915182252</v>
+        <v>0.4755097014532481</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004532313177732838</v>
       </c>
       <c r="J14">
-        <v>0.04428901891913739</v>
+        <v>0.3377129004880715</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2860491397600384</v>
       </c>
       <c r="L14">
-        <v>0.4237851870531983</v>
+        <v>0.04614597070811044</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7126254342837441</v>
+        <v>0.4415009982158864</v>
       </c>
       <c r="O14">
-        <v>2.924121025367327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9538480790818653</v>
+      </c>
+      <c r="Q14">
+        <v>1.664981373391299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.354468934910756</v>
+        <v>3.655288337844183</v>
       </c>
       <c r="C15">
-        <v>0.4769560968279905</v>
+        <v>0.5263273367297927</v>
       </c>
       <c r="D15">
-        <v>0.07915344809833158</v>
+        <v>0.1230770322345194</v>
       </c>
       <c r="E15">
-        <v>0.04586330489210155</v>
+        <v>0.05458362419129692</v>
       </c>
       <c r="F15">
-        <v>1.116979888054033</v>
+        <v>0.7237912674625591</v>
       </c>
       <c r="G15">
-        <v>0.000788044796923474</v>
+        <v>0.4718313910687044</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004459414574091269</v>
       </c>
       <c r="J15">
-        <v>0.04444448546270152</v>
+        <v>0.3365150691008125</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2856441122924096</v>
       </c>
       <c r="L15">
-        <v>0.4195530945084158</v>
+        <v>0.04625277077824741</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7154470817376364</v>
+        <v>0.4373442724401286</v>
       </c>
       <c r="O15">
-        <v>2.905540639432076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9532214188499211</v>
+      </c>
+      <c r="Q15">
+        <v>1.654640475523564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.07858510184235</v>
+        <v>3.426365279823642</v>
       </c>
       <c r="C16">
-        <v>0.4510572843195177</v>
+        <v>0.5006994518078045</v>
       </c>
       <c r="D16">
-        <v>0.07581804914222801</v>
+        <v>0.118024030006481</v>
       </c>
       <c r="E16">
-        <v>0.04542983434183689</v>
+        <v>0.05398355176429703</v>
       </c>
       <c r="F16">
-        <v>1.076445518387899</v>
+        <v>0.7002037898497946</v>
       </c>
       <c r="G16">
-        <v>0.0007911574080307405</v>
+        <v>0.4533124297660436</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003620093479135278</v>
       </c>
       <c r="J16">
-        <v>0.04536207141921089</v>
+        <v>0.3309620093705661</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2851899529947417</v>
       </c>
       <c r="L16">
-        <v>0.395406479475426</v>
+        <v>0.04699248327174566</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7320574785473326</v>
+        <v>0.4124077816887564</v>
       </c>
       <c r="O16">
-        <v>2.801393464187612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9468366714827852</v>
+      </c>
+      <c r="Q16">
+        <v>1.603551292285886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.909977804894766</v>
+        <v>3.285879796386212</v>
       </c>
       <c r="C17">
-        <v>0.4351870792076511</v>
+        <v>0.4850117601487796</v>
       </c>
       <c r="D17">
-        <v>0.07378791161900011</v>
+        <v>0.114951053631863</v>
       </c>
       <c r="E17">
-        <v>0.04518124111373467</v>
+        <v>0.05363011811835783</v>
       </c>
       <c r="F17">
-        <v>1.052268808062422</v>
+        <v>0.6860157838564689</v>
       </c>
       <c r="G17">
-        <v>0.0007930876061555789</v>
+        <v>0.4421661406455257</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003194119863133338</v>
       </c>
       <c r="J17">
-        <v>0.04594830210599099</v>
+        <v>0.3276827536903539</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2850498164354178</v>
       </c>
       <c r="L17">
-        <v>0.3806830341985119</v>
+        <v>0.04745811620432328</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7426310156643154</v>
+        <v>0.3971966345092994</v>
       </c>
       <c r="O17">
-        <v>2.739500729987299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9431859269124061</v>
+      </c>
+      <c r="Q17">
+        <v>1.572928809829676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.813216984488804</v>
+        <v>3.207897744950571</v>
       </c>
       <c r="C18">
-        <v>0.4260643932863388</v>
+        <v>0.4747413737640045</v>
       </c>
       <c r="D18">
-        <v>0.07262589795650598</v>
+        <v>0.1131540677325518</v>
       </c>
       <c r="E18">
-        <v>0.04504446638398463</v>
+        <v>0.05348037190043975</v>
       </c>
       <c r="F18">
-        <v>1.038606025428862</v>
+        <v>0.6790077932051375</v>
       </c>
       <c r="G18">
-        <v>0.000794205612903031</v>
+        <v>0.4367573898718859</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002741513177977772</v>
       </c>
       <c r="J18">
-        <v>0.04629387282912134</v>
+        <v>0.3263100908008596</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2857053527241362</v>
       </c>
       <c r="L18">
-        <v>0.3722456670088263</v>
+        <v>0.04777651995071075</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7488498892584303</v>
+        <v>0.3879894735125049</v>
       </c>
       <c r="O18">
-        <v>2.704604982128188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9399572084077334</v>
+      </c>
+      <c r="Q18">
+        <v>1.558514939665656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780491246244708</v>
+        <v>3.179297469883807</v>
       </c>
       <c r="C19">
-        <v>0.4229764382523911</v>
+        <v>0.4722365123031409</v>
       </c>
       <c r="D19">
-        <v>0.07223341322237076</v>
+        <v>0.1125774213808555</v>
       </c>
       <c r="E19">
-        <v>0.04499920867653273</v>
+        <v>0.05339336076720969</v>
       </c>
       <c r="F19">
-        <v>1.034020813777019</v>
+        <v>0.6758400909284887</v>
       </c>
       <c r="G19">
-        <v>0.0007945855098861211</v>
+        <v>0.4342240595887148</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002774538906913371</v>
       </c>
       <c r="J19">
-        <v>0.04641230045856126</v>
+        <v>0.3254920062351232</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2854058831577788</v>
       </c>
       <c r="L19">
-        <v>0.3693941065763653</v>
+        <v>0.04784934590481704</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7509787232595926</v>
+        <v>0.3852540147007772</v>
       </c>
       <c r="O19">
-        <v>2.692907815518595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.939824613814281</v>
+      </c>
+      <c r="Q19">
+        <v>1.551406248565144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.92790343959382</v>
+        <v>3.30106018297738</v>
       </c>
       <c r="C20">
-        <v>0.4368759020534014</v>
+        <v>0.4865815731894827</v>
       </c>
       <c r="D20">
-        <v>0.07400343176975355</v>
+        <v>0.1152741081525619</v>
       </c>
       <c r="E20">
-        <v>0.04520705812634773</v>
+        <v>0.05367097601994253</v>
       </c>
       <c r="F20">
-        <v>1.054817076707877</v>
+        <v>0.6875982676253471</v>
       </c>
       <c r="G20">
-        <v>0.0007928813295460414</v>
+        <v>0.4434174871689862</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003217202930570373</v>
       </c>
       <c r="J20">
-        <v>0.0458850248171867</v>
+        <v>0.3280638185550515</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2851134229964067</v>
       </c>
       <c r="L20">
-        <v>0.3822471043926896</v>
+        <v>0.04741172509263869</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7414911570648428</v>
+        <v>0.3987743359294598</v>
       </c>
       <c r="O20">
-        <v>2.746015841615332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.943468155240609</v>
+      </c>
+      <c r="Q20">
+        <v>1.576393083160923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.42590842517825</v>
+        <v>3.712483063891057</v>
       </c>
       <c r="C21">
-        <v>0.4836491454533984</v>
+        <v>0.5337940087476341</v>
       </c>
       <c r="D21">
-        <v>0.08001972069062191</v>
+        <v>0.1244159804895162</v>
       </c>
       <c r="E21">
-        <v>0.04598070759593575</v>
+        <v>0.05471125946650801</v>
       </c>
       <c r="F21">
-        <v>1.12766712773454</v>
+        <v>0.7292733807561405</v>
       </c>
       <c r="G21">
-        <v>0.0007872474210582221</v>
+        <v>0.4760667511966119</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004849445406733821</v>
       </c>
       <c r="J21">
-        <v>0.04421494712031304</v>
+        <v>0.3376794590118521</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.285351428660821</v>
       </c>
       <c r="L21">
-        <v>0.4258165294795191</v>
+        <v>0.04603516240025485</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7112803115167878</v>
+        <v>0.4441341803108259</v>
       </c>
       <c r="O21">
-        <v>2.93307319324353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9557802937082585</v>
+      </c>
+      <c r="Q21">
+        <v>1.666108773888254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.753693417920999</v>
+        <v>3.985311844585397</v>
       </c>
       <c r="C22">
-        <v>0.5142914483070342</v>
+        <v>0.5629814106239621</v>
       </c>
       <c r="D22">
-        <v>0.08400698947768603</v>
+        <v>0.1304267433652484</v>
       </c>
       <c r="E22">
-        <v>0.0465450681006061</v>
+        <v>0.05550882820613445</v>
       </c>
       <c r="F22">
-        <v>1.177671685568654</v>
+        <v>0.7589718685815683</v>
       </c>
       <c r="G22">
-        <v>0.000783630592950444</v>
+        <v>0.4994611799969135</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005910510599572483</v>
       </c>
       <c r="J22">
-        <v>0.04320214500841324</v>
+        <v>0.3450607911749159</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2869498945545743</v>
       </c>
       <c r="L22">
-        <v>0.4546086163590672</v>
+        <v>0.04523993415345551</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6928389944791391</v>
+        <v>0.4733863839547894</v>
       </c>
       <c r="O22">
-        <v>3.062265897198444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9629615311995963</v>
+      </c>
+      <c r="Q22">
+        <v>1.731391856826718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.578518140778328</v>
+        <v>3.843564011336468</v>
       </c>
       <c r="C23">
-        <v>0.4979290978764936</v>
+        <v>0.5456876145838692</v>
       </c>
       <c r="D23">
-        <v>0.08187360786667597</v>
+        <v>0.1271575867800294</v>
       </c>
       <c r="E23">
-        <v>0.04623831037893567</v>
+        <v>0.05514340330278955</v>
       </c>
       <c r="F23">
-        <v>1.150752779001039</v>
+        <v>0.7444479951716261</v>
       </c>
       <c r="G23">
-        <v>0.0007855552067490845</v>
+        <v>0.4881544577979895</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005043814239739319</v>
       </c>
       <c r="J23">
-        <v>0.04373529399192222</v>
+        <v>0.3417099458690132</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2869756711676281</v>
       </c>
       <c r="L23">
-        <v>0.4392107380345465</v>
+        <v>0.04572239898163133</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7025581357409223</v>
+        <v>0.4570870378073124</v>
       </c>
       <c r="O23">
-        <v>2.992644007050188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9573625854927741</v>
+      </c>
+      <c r="Q23">
+        <v>1.700282728640303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.919798722927055</v>
+        <v>3.30022266677139</v>
       </c>
       <c r="C24">
-        <v>0.4361123814426549</v>
+        <v>0.4832089635019372</v>
       </c>
       <c r="D24">
-        <v>0.07390597915302521</v>
+        <v>0.1150453326483216</v>
       </c>
       <c r="E24">
-        <v>0.04519536715242367</v>
+        <v>0.05375460550206768</v>
       </c>
       <c r="F24">
-        <v>1.053664269561381</v>
+        <v>0.6891113917836265</v>
       </c>
       <c r="G24">
-        <v>0.000792974561276208</v>
+        <v>0.4448144163430356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002741774937831565</v>
       </c>
       <c r="J24">
-        <v>0.04591360592610272</v>
+        <v>0.3288823743213811</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2865395419516155</v>
       </c>
       <c r="L24">
-        <v>0.3815399035319587</v>
+        <v>0.04753071486659177</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7420060519252019</v>
+        <v>0.3970273077425333</v>
       </c>
       <c r="O24">
-        <v>2.743068226450816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.9407442789108558</v>
+      </c>
+      <c r="Q24">
+        <v>1.581062813566149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.217399763621358</v>
+        <v>2.713513920963294</v>
       </c>
       <c r="C25">
-        <v>0.3696288156185403</v>
+        <v>0.4161415351457833</v>
       </c>
       <c r="D25">
-        <v>0.06552588171251728</v>
+        <v>0.102340840686864</v>
       </c>
       <c r="E25">
-        <v>0.04430604479626155</v>
+        <v>0.05246270030309752</v>
       </c>
       <c r="F25">
-        <v>0.9581160077799211</v>
+        <v>0.633309722830468</v>
       </c>
       <c r="G25">
-        <v>0.000801278217366086</v>
+        <v>0.4010116433854591</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00133718559806173</v>
       </c>
       <c r="J25">
-        <v>0.04858187938151026</v>
+        <v>0.3168142627931303</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2880117993563758</v>
       </c>
       <c r="L25">
-        <v>0.3205046484245599</v>
+        <v>0.04965052302517936</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7897641831800755</v>
+        <v>0.3333489756902424</v>
       </c>
       <c r="O25">
-        <v>2.500413635530521</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9263851222254971</v>
+      </c>
+      <c r="Q25">
+        <v>1.46238156907765</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.289677507214719</v>
+        <v>2.238942729254802</v>
       </c>
       <c r="C2">
-        <v>0.362906933582849</v>
+        <v>0.3734766000471552</v>
       </c>
       <c r="D2">
-        <v>0.09313819647888977</v>
+        <v>0.093472606874478</v>
       </c>
       <c r="E2">
-        <v>0.05183538909590624</v>
+        <v>0.04979219685376535</v>
       </c>
       <c r="F2">
-        <v>0.5986092591389394</v>
+        <v>0.5742098728713572</v>
       </c>
       <c r="G2">
-        <v>0.373977430753321</v>
+        <v>0.3349972398228189</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004452791009210699</v>
+        <v>0.0005495328895381846</v>
       </c>
       <c r="J2">
-        <v>0.3108345882034058</v>
+        <v>0.3368110296758289</v>
       </c>
       <c r="K2">
-        <v>0.2928777774073588</v>
+        <v>0.2719965356124341</v>
       </c>
       <c r="L2">
-        <v>0.05150764732713231</v>
+        <v>0.1468300941947618</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06660210481012996</v>
       </c>
       <c r="N2">
-        <v>0.2856802448434479</v>
+        <v>0.04864321881927491</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.914835405001341</v>
+        <v>0.2967618589777459</v>
       </c>
       <c r="Q2">
-        <v>1.392115774035744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9264822309963137</v>
+      </c>
+      <c r="S2">
+        <v>1.325203101343703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.996310360027678</v>
+        <v>1.956820966399334</v>
       </c>
       <c r="C3">
-        <v>0.3292161152708388</v>
+        <v>0.3339131053970164</v>
       </c>
       <c r="D3">
-        <v>0.08713532691282921</v>
+        <v>0.08737926744593949</v>
       </c>
       <c r="E3">
-        <v>0.05141700428713847</v>
+        <v>0.04948472546938909</v>
       </c>
       <c r="F3">
-        <v>0.5747653262688317</v>
+        <v>0.5529874303104094</v>
       </c>
       <c r="G3">
-        <v>0.355118023105085</v>
+        <v>0.3191394442162832</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.000624871655918291</v>
+        <v>0.0005691602634483317</v>
       </c>
       <c r="J3">
-        <v>0.3066836794487173</v>
+        <v>0.3313365221203739</v>
       </c>
       <c r="K3">
-        <v>0.2957388795120437</v>
+        <v>0.2758535755115545</v>
       </c>
       <c r="L3">
-        <v>0.05276100467561573</v>
+        <v>0.1518143616353704</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06568187392977443</v>
       </c>
       <c r="N3">
-        <v>0.2547225484321274</v>
+        <v>0.04985178057242035</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9108849143680899</v>
+        <v>0.2640551855817108</v>
       </c>
       <c r="Q3">
-        <v>1.343130391815876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9150961778653581</v>
+      </c>
+      <c r="S3">
+        <v>1.283319156594771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.815570219839714</v>
+        <v>1.782686840162143</v>
       </c>
       <c r="C4">
-        <v>0.3086064406614639</v>
+        <v>0.3098018627183023</v>
       </c>
       <c r="D4">
-        <v>0.08352644640341111</v>
+        <v>0.08371937606982982</v>
       </c>
       <c r="E4">
-        <v>0.05120387592317321</v>
+        <v>0.04933474006596761</v>
       </c>
       <c r="F4">
-        <v>0.5608251256782353</v>
+        <v>0.5405106204308723</v>
       </c>
       <c r="G4">
-        <v>0.344032516339837</v>
+        <v>0.309879576682107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0009420958936479096</v>
+        <v>0.0007544665725904842</v>
       </c>
       <c r="J4">
-        <v>0.3044739300248906</v>
+        <v>0.328108305338354</v>
       </c>
       <c r="K4">
-        <v>0.2978602482281723</v>
+        <v>0.278490716864912</v>
       </c>
       <c r="L4">
-        <v>0.05356815587688857</v>
+        <v>0.1549988407805145</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06570315464153964</v>
       </c>
       <c r="N4">
-        <v>0.235933990283641</v>
+        <v>0.05062499128163367</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9092901979090939</v>
+        <v>0.2442303760314815</v>
       </c>
       <c r="Q4">
-        <v>1.314801522056115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9090006193207998</v>
+      </c>
+      <c r="S4">
+        <v>1.258932375360843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.740825348841469</v>
+        <v>1.710559131198636</v>
       </c>
       <c r="C5">
-        <v>0.3006319654515295</v>
+        <v>0.3004502858063489</v>
       </c>
       <c r="D5">
-        <v>0.08208785231401095</v>
+        <v>0.0822614704311988</v>
       </c>
       <c r="E5">
-        <v>0.05111125461345445</v>
+        <v>0.04926680557128904</v>
       </c>
       <c r="F5">
-        <v>0.5549558956226477</v>
+        <v>0.5352042114692921</v>
       </c>
       <c r="G5">
-        <v>0.3393189335227689</v>
+        <v>0.3059128024534061</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001190685167554939</v>
+        <v>0.0009536090582118462</v>
       </c>
       <c r="J5">
-        <v>0.3034955916164392</v>
+        <v>0.326658810621467</v>
       </c>
       <c r="K5">
-        <v>0.2985747472403553</v>
+        <v>0.2794006456827631</v>
       </c>
       <c r="L5">
-        <v>0.05388944243026472</v>
+        <v>0.1562049742355391</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06580578526813774</v>
       </c>
       <c r="N5">
-        <v>0.2284933158198754</v>
+        <v>0.05093207448689085</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9092127797909697</v>
+        <v>0.2363811274864105</v>
       </c>
       <c r="Q5">
-        <v>1.302675905974894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9071272837251456</v>
+      </c>
+      <c r="S5">
+        <v>1.248321417374726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.727261308570775</v>
+        <v>1.697422588881636</v>
       </c>
       <c r="C6">
-        <v>0.2998089241094561</v>
+        <v>0.2994295447229831</v>
       </c>
       <c r="D6">
-        <v>0.081866408040149</v>
+        <v>0.08203727683121542</v>
       </c>
       <c r="E6">
-        <v>0.05107625875245425</v>
+        <v>0.04923605181433999</v>
       </c>
       <c r="F6">
-        <v>0.553554304482013</v>
+        <v>0.5338965722294446</v>
       </c>
       <c r="G6">
-        <v>0.3381590121629188</v>
+        <v>0.3048859068317071</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001327491932973324</v>
+        <v>0.001098331610704051</v>
       </c>
       <c r="J6">
-        <v>0.3031419462414391</v>
+        <v>0.326216652474919</v>
       </c>
       <c r="K6">
-        <v>0.2984069653158876</v>
+        <v>0.2792746859065502</v>
       </c>
       <c r="L6">
-        <v>0.05392264925332402</v>
+        <v>0.1562578670971817</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06576755729972383</v>
       </c>
       <c r="N6">
-        <v>0.2274614111602915</v>
+        <v>0.05096433513078846</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9096657974734583</v>
+        <v>0.235287106924531</v>
       </c>
       <c r="Q6">
-        <v>1.299461968647364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.907309767534521</v>
+      </c>
+      <c r="S6">
+        <v>1.245365469323573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.811429907435524</v>
+        <v>1.777421560963063</v>
       </c>
       <c r="C7">
-        <v>0.3098694323012552</v>
+        <v>0.3106698144054292</v>
       </c>
       <c r="D7">
-        <v>0.08355152189686521</v>
+        <v>0.08387017169811628</v>
       </c>
       <c r="E7">
-        <v>0.05114728753089537</v>
+        <v>0.04930445670269279</v>
       </c>
       <c r="F7">
-        <v>0.5595511429088589</v>
+        <v>0.5385450136168757</v>
       </c>
       <c r="G7">
-        <v>0.3429182654003284</v>
+        <v>0.3115813767130007</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001182336900511949</v>
+        <v>0.001038360078982059</v>
       </c>
       <c r="J7">
-        <v>0.3039249728631717</v>
+        <v>0.3234980090727575</v>
       </c>
       <c r="K7">
-        <v>0.2970734067251861</v>
+        <v>0.2774676097472941</v>
       </c>
       <c r="L7">
-        <v>0.05351618666991076</v>
+        <v>0.1544783003583703</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06545389495073373</v>
       </c>
       <c r="N7">
-        <v>0.2363816416494871</v>
+        <v>0.05057680738329218</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9105409167980625</v>
+        <v>0.2446090756706383</v>
       </c>
       <c r="Q7">
-        <v>1.311288029547455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9108061983538107</v>
+      </c>
+      <c r="S7">
+        <v>1.253271839705491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.18445760298755</v>
+        <v>2.13379231940894</v>
       </c>
       <c r="C8">
-        <v>0.353108596716595</v>
+        <v>0.3602066997450777</v>
       </c>
       <c r="D8">
-        <v>0.0911109607127969</v>
+        <v>0.09183305985878576</v>
       </c>
       <c r="E8">
-        <v>0.05160893491253127</v>
+        <v>0.04969081648117601</v>
       </c>
       <c r="F8">
-        <v>0.5886558344983399</v>
+        <v>0.5628570468016107</v>
       </c>
       <c r="G8">
-        <v>0.3659755827741193</v>
+        <v>0.3373904285050315</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007449471991414214</v>
+        <v>0.000855825315431602</v>
       </c>
       <c r="J8">
-        <v>0.308623745387365</v>
+        <v>0.3209858056134038</v>
       </c>
       <c r="K8">
-        <v>0.2927376014159826</v>
+        <v>0.2713851486408103</v>
       </c>
       <c r="L8">
-        <v>0.051858845564837</v>
+        <v>0.1476364866699811</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06561511161594957</v>
       </c>
       <c r="N8">
-        <v>0.2756864677825064</v>
+        <v>0.04898670271557037</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9150127964893855</v>
+        <v>0.2859136216111722</v>
       </c>
       <c r="Q8">
-        <v>1.370416231256542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9259376498740437</v>
+      </c>
+      <c r="S8">
+        <v>1.298791799585487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.91704852858345</v>
+        <v>2.835407037027551</v>
       </c>
       <c r="C9">
-        <v>0.4361596879510614</v>
+        <v>0.4579446052665048</v>
       </c>
       <c r="D9">
-        <v>0.1064951978992497</v>
+        <v>0.1075862740094067</v>
       </c>
       <c r="E9">
-        <v>0.05297006807405502</v>
+        <v>0.05076962862848511</v>
       </c>
       <c r="F9">
-        <v>0.6537729290299907</v>
+        <v>0.6199005298644238</v>
       </c>
       <c r="G9">
-        <v>0.4172976729357032</v>
+        <v>0.3837265096650242</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001291318924271145</v>
+        <v>0.001535597294996194</v>
       </c>
       <c r="J9">
-        <v>0.3216144081232954</v>
+        <v>0.3324311034409249</v>
       </c>
       <c r="K9">
-        <v>0.2886826989503639</v>
+        <v>0.2640220765135233</v>
       </c>
       <c r="L9">
-        <v>0.04901060029498794</v>
+        <v>0.1363437798269231</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07128796262437831</v>
       </c>
       <c r="N9">
-        <v>0.3536714792430757</v>
+        <v>0.04620960046659217</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9283216544344981</v>
+        <v>0.368369938660976</v>
       </c>
       <c r="Q9">
-        <v>1.507149202912274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9586567510947361</v>
+      </c>
+      <c r="S9">
+        <v>1.413251025345801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.451305609519181</v>
+        <v>3.338201847907953</v>
       </c>
       <c r="C10">
-        <v>0.498559900389921</v>
+        <v>0.5289035669552504</v>
       </c>
       <c r="D10">
-        <v>0.1182541066404639</v>
+        <v>0.1203925918197086</v>
       </c>
       <c r="E10">
-        <v>0.05417529171335822</v>
+        <v>0.05189350090465972</v>
       </c>
       <c r="F10">
-        <v>0.7051281481468834</v>
+        <v>0.6603450481152251</v>
       </c>
       <c r="G10">
-        <v>0.4574945834885682</v>
+        <v>0.437147120297368</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003049344683289767</v>
+        <v>0.003188005733266053</v>
       </c>
       <c r="J10">
-        <v>0.3328052333730085</v>
+        <v>0.3193163353265049</v>
       </c>
       <c r="K10">
-        <v>0.2873614665206858</v>
+        <v>0.258254721516991</v>
       </c>
       <c r="L10">
-        <v>0.04708445622646984</v>
+        <v>0.1280082259395297</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07766012465746996</v>
       </c>
       <c r="N10">
-        <v>0.4126227875968453</v>
+        <v>0.04430788217576431</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9434189100149695</v>
+        <v>0.4302999355034274</v>
       </c>
       <c r="Q10">
-        <v>1.616291702948644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9917110239624805</v>
+      </c>
+      <c r="S10">
+        <v>1.490796695321336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.688606923007967</v>
+        <v>3.548348292231992</v>
       </c>
       <c r="C11">
-        <v>0.5295008009956632</v>
+        <v>0.5590199893701993</v>
       </c>
       <c r="D11">
-        <v>0.123780556323041</v>
+        <v>0.127764954025622</v>
       </c>
       <c r="E11">
-        <v>0.05468773216446543</v>
+        <v>0.05263969474508556</v>
       </c>
       <c r="F11">
-        <v>0.7275392320653964</v>
+        <v>0.670285720515821</v>
       </c>
       <c r="G11">
-        <v>0.4748088818433018</v>
+        <v>0.4918467595190492</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004516738350214489</v>
+        <v>0.004599723483820206</v>
       </c>
       <c r="J11">
-        <v>0.3374850680523735</v>
+        <v>0.2783992118234693</v>
       </c>
       <c r="K11">
-        <v>0.2859736992075526</v>
+        <v>0.2521814164866605</v>
       </c>
       <c r="L11">
-        <v>0.0461665192200833</v>
+        <v>0.1231102485688069</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07956482280812338</v>
       </c>
       <c r="N11">
-        <v>0.4407038084957691</v>
+        <v>0.0434120805146776</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9537222940244021</v>
+        <v>0.4589163197766624</v>
       </c>
       <c r="Q11">
-        <v>1.663011944866156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.016570942263456</v>
+      </c>
+      <c r="S11">
+        <v>1.500037934182558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.781243998801472</v>
+        <v>3.628977938224523</v>
       </c>
       <c r="C12">
-        <v>0.5400053313285298</v>
+        <v>0.5684967327995878</v>
       </c>
       <c r="D12">
-        <v>0.1258506227624281</v>
+        <v>0.1307190870139578</v>
       </c>
       <c r="E12">
-        <v>0.05493754587250166</v>
+        <v>0.05301417405049946</v>
       </c>
       <c r="F12">
-        <v>0.7372244970639628</v>
+        <v>0.6742335795888508</v>
       </c>
       <c r="G12">
-        <v>0.4824022457663801</v>
+        <v>0.5182799911260076</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004931518464172946</v>
+        <v>0.004934896854321913</v>
       </c>
       <c r="J12">
-        <v>0.3397906789155201</v>
+        <v>0.26085382754043</v>
       </c>
       <c r="K12">
-        <v>0.2862036856947121</v>
+        <v>0.2502229587121008</v>
       </c>
       <c r="L12">
-        <v>0.04587111339834848</v>
+        <v>0.1214100838055252</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08046703057300775</v>
       </c>
       <c r="N12">
-        <v>0.4509099288459737</v>
+        <v>0.04311927919838343</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9565719184278834</v>
+        <v>0.4691967970815512</v>
       </c>
       <c r="Q12">
-        <v>1.684017789516048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.025671064835166</v>
+      </c>
+      <c r="S12">
+        <v>1.50373162893294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.761865340926761</v>
+        <v>3.612256371927515</v>
       </c>
       <c r="C13">
-        <v>0.5374896588976696</v>
+        <v>0.5662138720912822</v>
       </c>
       <c r="D13">
-        <v>0.1253963142245595</v>
+        <v>0.1300654094371225</v>
       </c>
       <c r="E13">
-        <v>0.05489297856764352</v>
+        <v>0.05294089826797155</v>
       </c>
       <c r="F13">
-        <v>0.7353413694113868</v>
+        <v>0.6736220880061197</v>
       </c>
       <c r="G13">
-        <v>0.4809463905544646</v>
+        <v>0.5125518307192323</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004799414058457963</v>
+        <v>0.004811158232429058</v>
       </c>
       <c r="J13">
-        <v>0.3393841064534229</v>
+        <v>0.2647733289174639</v>
       </c>
       <c r="K13">
-        <v>0.2862873856189907</v>
+        <v>0.2507794574932163</v>
       </c>
       <c r="L13">
-        <v>0.04594358132352383</v>
+        <v>0.1218198438451896</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0803282321747858</v>
       </c>
       <c r="N13">
-        <v>0.4486120076924749</v>
+        <v>0.04318982035748942</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9557023555691586</v>
+        <v>0.4668851838301009</v>
       </c>
       <c r="Q13">
-        <v>1.68006285979385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.023389665026215</v>
+      </c>
+      <c r="S13">
+        <v>1.503608138888922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.69647123604949</v>
+        <v>3.555256963725924</v>
       </c>
       <c r="C14">
-        <v>0.5302574211620765</v>
+        <v>0.559697385346368</v>
       </c>
       <c r="D14">
-        <v>0.1239472398907822</v>
+        <v>0.1280003804605343</v>
       </c>
       <c r="E14">
-        <v>0.05471219870747568</v>
+        <v>0.05267358415182244</v>
       </c>
       <c r="F14">
-        <v>0.728421995034374</v>
+        <v>0.6707130707208364</v>
       </c>
       <c r="G14">
-        <v>0.4755097014532481</v>
+        <v>0.494001076702304</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.004532313177732838</v>
+        <v>0.004604992483278281</v>
       </c>
       <c r="J14">
-        <v>0.3377129004880715</v>
+        <v>0.2770226377308802</v>
       </c>
       <c r="K14">
-        <v>0.2860491397600384</v>
+        <v>0.2520781052737462</v>
       </c>
       <c r="L14">
-        <v>0.04614597070811044</v>
+        <v>0.1229892932733012</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.079662586050393</v>
       </c>
       <c r="N14">
-        <v>0.4415009982158864</v>
+        <v>0.04339116915059726</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9538480790818653</v>
+        <v>0.4597207187854906</v>
       </c>
       <c r="Q14">
-        <v>1.664981373391299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.017182601509148</v>
+      </c>
+      <c r="S14">
+        <v>1.500631080857403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.655288337844183</v>
+        <v>3.519001809870929</v>
       </c>
       <c r="C15">
-        <v>0.5263273367297927</v>
+        <v>0.5561585220313248</v>
       </c>
       <c r="D15">
-        <v>0.1230770322345194</v>
+        <v>0.1267783736515185</v>
       </c>
       <c r="E15">
-        <v>0.05458362419129692</v>
+        <v>0.05249729838225292</v>
       </c>
       <c r="F15">
-        <v>0.7237912674625591</v>
+        <v>0.6684237560325457</v>
       </c>
       <c r="G15">
-        <v>0.4718313910687044</v>
+        <v>0.4829194116876323</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.004459414574091269</v>
+        <v>0.004586753157580503</v>
       </c>
       <c r="J15">
-        <v>0.3365150691008125</v>
+        <v>0.2841222216253598</v>
       </c>
       <c r="K15">
-        <v>0.2856441122924096</v>
+        <v>0.2525940132952265</v>
       </c>
       <c r="L15">
-        <v>0.04625277077824741</v>
+        <v>0.1236142395207374</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0791434916883631</v>
       </c>
       <c r="N15">
-        <v>0.4373442724401286</v>
+        <v>0.04350002158111188</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9532214188499211</v>
+        <v>0.4555219630457685</v>
       </c>
       <c r="Q15">
-        <v>1.654640475523564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.014051571454786</v>
+      </c>
+      <c r="S15">
+        <v>1.497365163111226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.426365279823642</v>
+        <v>3.314883775210774</v>
       </c>
       <c r="C16">
-        <v>0.5006994518078045</v>
+        <v>0.5313248166332301</v>
       </c>
       <c r="D16">
-        <v>0.118024030006481</v>
+        <v>0.1200701226552496</v>
       </c>
       <c r="E16">
-        <v>0.05398355176429703</v>
+        <v>0.05169448692934786</v>
       </c>
       <c r="F16">
-        <v>0.7002037898497946</v>
+        <v>0.6562054825427452</v>
       </c>
       <c r="G16">
-        <v>0.4533124297660436</v>
+        <v>0.4311152624459709</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.003620093479135278</v>
+        <v>0.003910230085146793</v>
       </c>
       <c r="J16">
-        <v>0.3309620093705661</v>
+        <v>0.3201614311260528</v>
       </c>
       <c r="K16">
-        <v>0.2851899529947417</v>
+        <v>0.2565359735123813</v>
       </c>
       <c r="L16">
-        <v>0.04699248327174566</v>
+        <v>0.1275794395044318</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07668620364518119</v>
       </c>
       <c r="N16">
-        <v>0.4124077816887564</v>
+        <v>0.04423579986212811</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9468366714827852</v>
+        <v>0.4300850218114647</v>
       </c>
       <c r="Q16">
-        <v>1.603551292285886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9946549142368184</v>
+      </c>
+      <c r="S16">
+        <v>1.480484060903109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.285879796386212</v>
+        <v>3.186753545073145</v>
       </c>
       <c r="C17">
-        <v>0.4850117601487796</v>
+        <v>0.5150595357929149</v>
       </c>
       <c r="D17">
-        <v>0.114951053631863</v>
+        <v>0.1162868750278321</v>
       </c>
       <c r="E17">
-        <v>0.05363011811835783</v>
+        <v>0.05127680460586781</v>
       </c>
       <c r="F17">
-        <v>0.6860157838564689</v>
+        <v>0.6473237385092432</v>
       </c>
       <c r="G17">
-        <v>0.4421661406455257</v>
+        <v>0.4068082354949638</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003194119863133338</v>
+        <v>0.003560280328888332</v>
       </c>
       <c r="J17">
-        <v>0.3276827536903539</v>
+        <v>0.335997516016235</v>
       </c>
       <c r="K17">
-        <v>0.2850498164354178</v>
+        <v>0.258481278674445</v>
       </c>
       <c r="L17">
-        <v>0.04745811620432328</v>
+        <v>0.129880322481398</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07508534677113232</v>
       </c>
       <c r="N17">
-        <v>0.3971966345092994</v>
+        <v>0.04469887493362457</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9431859269124061</v>
+        <v>0.4143788728332822</v>
       </c>
       <c r="Q17">
-        <v>1.572928809829676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.984407692353372</v>
+      </c>
+      <c r="S17">
+        <v>1.465722663623893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.207897744950571</v>
+        <v>3.114862926193837</v>
       </c>
       <c r="C18">
-        <v>0.4747413737640045</v>
+        <v>0.5039829915786527</v>
       </c>
       <c r="D18">
-        <v>0.1131540677325518</v>
+        <v>0.1141851170165751</v>
       </c>
       <c r="E18">
-        <v>0.05348037190043975</v>
+        <v>0.05110946478501788</v>
       </c>
       <c r="F18">
-        <v>0.6790077932051375</v>
+        <v>0.6427585202582762</v>
       </c>
       <c r="G18">
-        <v>0.4367573898718859</v>
+        <v>0.3961933479245232</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002741513177977772</v>
+        <v>0.003090961156384076</v>
       </c>
       <c r="J18">
-        <v>0.3263100908008596</v>
+        <v>0.3428751014471914</v>
       </c>
       <c r="K18">
-        <v>0.2857053527241362</v>
+        <v>0.2600685487972711</v>
       </c>
       <c r="L18">
-        <v>0.04777651995071075</v>
+        <v>0.1313877059497717</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07438598832045429</v>
       </c>
       <c r="N18">
-        <v>0.3879894735125049</v>
+        <v>0.04500921525221901</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9399572084077334</v>
+        <v>0.4048069204056617</v>
       </c>
       <c r="Q18">
-        <v>1.558514939665656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9777592539106053</v>
+      </c>
+      <c r="S18">
+        <v>1.458536141821071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.179297469883807</v>
+        <v>3.088172379573564</v>
       </c>
       <c r="C19">
-        <v>0.4722365123031409</v>
+        <v>0.5012182646932217</v>
       </c>
       <c r="D19">
-        <v>0.1125774213808555</v>
+        <v>0.1135232998429103</v>
       </c>
       <c r="E19">
-        <v>0.05339336076720969</v>
+        <v>0.05102069171129386</v>
       </c>
       <c r="F19">
-        <v>0.6758400909284887</v>
+        <v>0.6403391990695511</v>
       </c>
       <c r="G19">
-        <v>0.4342240595887148</v>
+        <v>0.3923018671063119</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002774538906913371</v>
+        <v>0.003156915143252448</v>
       </c>
       <c r="J19">
-        <v>0.3254920062351232</v>
+        <v>0.3443693127198202</v>
       </c>
       <c r="K19">
-        <v>0.2854058831577788</v>
+        <v>0.2600882840733938</v>
       </c>
       <c r="L19">
-        <v>0.04784934590481704</v>
+        <v>0.1317073394262636</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07395485751083442</v>
       </c>
       <c r="N19">
-        <v>0.3852540147007772</v>
+        <v>0.04508407445885609</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.939824613814281</v>
+        <v>0.4019491056330793</v>
       </c>
       <c r="Q19">
-        <v>1.551406248565144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9766242562927232</v>
+      </c>
+      <c r="S19">
+        <v>1.453644131226554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.30106018297738</v>
+        <v>3.20072171226218</v>
       </c>
       <c r="C20">
-        <v>0.4865815731894827</v>
+        <v>0.5167224376978936</v>
       </c>
       <c r="D20">
-        <v>0.1152741081525619</v>
+        <v>0.1166744664281225</v>
       </c>
       <c r="E20">
-        <v>0.05367097601994253</v>
+        <v>0.0513222690310613</v>
       </c>
       <c r="F20">
-        <v>0.6875982676253471</v>
+        <v>0.6484004794718459</v>
       </c>
       <c r="G20">
-        <v>0.4434174871689862</v>
+        <v>0.4092065454846363</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003217202930570373</v>
+        <v>0.003571908820314107</v>
       </c>
       <c r="J20">
-        <v>0.3280638185550515</v>
+        <v>0.3346185017861103</v>
       </c>
       <c r="K20">
-        <v>0.2851134229964067</v>
+        <v>0.2583412263281915</v>
       </c>
       <c r="L20">
-        <v>0.04741172509263869</v>
+        <v>0.1296588186818433</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07527818365535666</v>
       </c>
       <c r="N20">
-        <v>0.3987743359294598</v>
+        <v>0.04465228679407574</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.943468155240609</v>
+        <v>0.4160148620103143</v>
       </c>
       <c r="Q20">
-        <v>1.576393083160923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9853341582044948</v>
+      </c>
+      <c r="S20">
+        <v>1.467679276843256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.712483063891057</v>
+        <v>3.564499367949338</v>
       </c>
       <c r="C21">
-        <v>0.5337940087476341</v>
+        <v>0.5613824015354396</v>
       </c>
       <c r="D21">
-        <v>0.1244159804895162</v>
+        <v>0.1291306074692216</v>
       </c>
       <c r="E21">
-        <v>0.05471125946650801</v>
+        <v>0.05279584105051782</v>
       </c>
       <c r="F21">
-        <v>0.7292733807561405</v>
+        <v>0.6678669315136148</v>
       </c>
       <c r="G21">
-        <v>0.4760667511966119</v>
+        <v>0.5096094977265579</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.004849445406733821</v>
+        <v>0.004948340047180366</v>
       </c>
       <c r="J21">
-        <v>0.3376794590118521</v>
+        <v>0.2620604748652866</v>
       </c>
       <c r="K21">
-        <v>0.285351428660821</v>
+        <v>0.2500817241274405</v>
       </c>
       <c r="L21">
-        <v>0.04603516240025485</v>
+        <v>0.1220985550548619</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07917309208473</v>
       </c>
       <c r="N21">
-        <v>0.4441341803108259</v>
+        <v>0.04329027308328826</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9557802937082585</v>
+        <v>0.4620780020734827</v>
       </c>
       <c r="Q21">
-        <v>1.666108773888254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.022662342073559</v>
+      </c>
+      <c r="S21">
+        <v>1.490462781095829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.985311844585397</v>
+        <v>3.803411361239398</v>
       </c>
       <c r="C22">
-        <v>0.5629814106239621</v>
+        <v>0.5880480102858883</v>
       </c>
       <c r="D22">
-        <v>0.1304267433652484</v>
+        <v>0.1376023260799855</v>
       </c>
       <c r="E22">
-        <v>0.05550882820613445</v>
+        <v>0.05393276592475615</v>
       </c>
       <c r="F22">
-        <v>0.7589718685815683</v>
+        <v>0.6815065995402492</v>
       </c>
       <c r="G22">
-        <v>0.4994611799969135</v>
+        <v>0.5864771662305941</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.005910510599572483</v>
+        <v>0.005703396421878892</v>
       </c>
       <c r="J22">
-        <v>0.3450607911749159</v>
+        <v>0.2204956097604267</v>
       </c>
       <c r="K22">
-        <v>0.2869498945545743</v>
+        <v>0.2454845206942906</v>
       </c>
       <c r="L22">
-        <v>0.04523993415345551</v>
+        <v>0.1175957551290026</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08233599811665826</v>
       </c>
       <c r="N22">
-        <v>0.4733863839547894</v>
+        <v>0.04249521408191193</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9629615311995963</v>
+        <v>0.4916171300646255</v>
       </c>
       <c r="Q22">
-        <v>1.731391856826718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.047435780950906</v>
+      </c>
+      <c r="S22">
+        <v>1.507403864672625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.843564011336468</v>
+        <v>3.683021587784253</v>
       </c>
       <c r="C23">
-        <v>0.5456876145838692</v>
+        <v>0.5732682499520934</v>
       </c>
       <c r="D23">
-        <v>0.1271575867800294</v>
+        <v>0.132650253852475</v>
       </c>
       <c r="E23">
-        <v>0.05514340330278955</v>
+        <v>0.053311098944409</v>
       </c>
       <c r="F23">
-        <v>0.7444479951716261</v>
+        <v>0.6774279450353902</v>
       </c>
       <c r="G23">
-        <v>0.4881544577979895</v>
+        <v>0.5376977976268904</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.005043814239739319</v>
+        <v>0.004951128002515404</v>
       </c>
       <c r="J23">
-        <v>0.3417099458690132</v>
+        <v>0.2493976920187677</v>
       </c>
       <c r="K23">
-        <v>0.2869756711676281</v>
+        <v>0.2494129638029534</v>
       </c>
       <c r="L23">
-        <v>0.04572239898163133</v>
+        <v>0.1204719501539522</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08125703276864016</v>
       </c>
       <c r="N23">
-        <v>0.4570870378073124</v>
+        <v>0.04296670925679358</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9573625854927741</v>
+        <v>0.4753762706752127</v>
       </c>
       <c r="Q23">
-        <v>1.700282728640303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.030626132032666</v>
+      </c>
+      <c r="S23">
+        <v>1.507802395502893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.30022266677139</v>
+        <v>3.200394852934892</v>
       </c>
       <c r="C24">
-        <v>0.4832089635019372</v>
+        <v>0.5131025702136469</v>
       </c>
       <c r="D24">
-        <v>0.1150453326483216</v>
+        <v>0.1164141404692458</v>
       </c>
       <c r="E24">
-        <v>0.05375460550206768</v>
+        <v>0.051401542646623</v>
       </c>
       <c r="F24">
-        <v>0.6891113917836265</v>
+        <v>0.6500879695324002</v>
       </c>
       <c r="G24">
-        <v>0.4448144163430356</v>
+        <v>0.410043358148485</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002741774937831565</v>
+        <v>0.002998287319514681</v>
       </c>
       <c r="J24">
-        <v>0.3288823743213811</v>
+        <v>0.3361912337219906</v>
       </c>
       <c r="K24">
-        <v>0.2865395419516155</v>
+        <v>0.2597458618122417</v>
       </c>
       <c r="L24">
-        <v>0.04753071486659177</v>
+        <v>0.130249308776099</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07572029881147202</v>
       </c>
       <c r="N24">
-        <v>0.3970273077425333</v>
+        <v>0.04475794992060766</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9407442789108558</v>
+        <v>0.4142092357709259</v>
       </c>
       <c r="Q24">
-        <v>1.581062813566149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9820991017424774</v>
+      </c>
+      <c r="S24">
+        <v>1.472825394460358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.713513920963294</v>
+        <v>2.642243972721531</v>
       </c>
       <c r="C25">
-        <v>0.4161415351457833</v>
+        <v>0.4347243930126865</v>
       </c>
       <c r="D25">
-        <v>0.102340840686864</v>
+        <v>0.1031491109919784</v>
       </c>
       <c r="E25">
-        <v>0.05246270030309752</v>
+        <v>0.05030848998646853</v>
       </c>
       <c r="F25">
-        <v>0.633309722830468</v>
+        <v>0.602814013154493</v>
       </c>
       <c r="G25">
-        <v>0.4010116433854591</v>
+        <v>0.3648035645236121</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.00133718559806173</v>
+        <v>0.001665938633649944</v>
       </c>
       <c r="J25">
-        <v>0.3168142627931303</v>
+        <v>0.3338336129145176</v>
       </c>
       <c r="K25">
-        <v>0.2880117993563758</v>
+        <v>0.2648056769542322</v>
       </c>
       <c r="L25">
-        <v>0.04965052302517936</v>
+        <v>0.1389014558168817</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06890448223244938</v>
       </c>
       <c r="N25">
-        <v>0.3333489756902424</v>
+        <v>0.04684755705102361</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9263851222254971</v>
+        <v>0.3469529502513922</v>
       </c>
       <c r="Q25">
-        <v>1.46238156907765</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9508291649154046</v>
+      </c>
+      <c r="S25">
+        <v>1.378213053411514</v>
       </c>
     </row>
   </sheetData>
